--- a/exercises/exer01/graph.xlsx
+++ b/exercises/exer01/graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRH 06\OneDrive\Desktop\CMSC180-Introduction-to-Parallel-Computing\exercises\exer01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B850E983-2038-4347-A04B-34678A7F1E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EDC8AD-81BA-42B6-A119-BC0368F44699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{38CA2FE1-C07F-4E31-8A03-03363D6B51E1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{38CA2FE1-C07F-4E31-8A03-03363D6B51E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2620,14 +2620,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5B1C71-873C-40C2-B01E-9712E240CD32}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2855,6 +2856,276 @@
         <v>400000000</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C40">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="D40">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="E40">
+        <f>SUM(B40:D40)/3</f>
+        <v>7.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>200</v>
+      </c>
+      <c r="B41">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="C41">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="D41">
+        <v>2.69E-2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:E54" si="0">SUM(B41:D41)/3</f>
+        <v>2.7333333333333331E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>300</v>
+      </c>
+      <c r="B42">
+        <v>6.1199999999999997E-2</v>
+      </c>
+      <c r="C42">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="D42">
+        <v>5.91E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>400</v>
+      </c>
+      <c r="B43">
+        <v>0.1066</v>
+      </c>
+      <c r="C43">
+        <v>0.1089</v>
+      </c>
+      <c r="D43">
+        <v>0.1056</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.10703333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.16613333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>600</v>
+      </c>
+      <c r="B45">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="C45">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.23846666666666669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>700</v>
+      </c>
+      <c r="B46">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="D46">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0.32313333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>800</v>
+      </c>
+      <c r="B47">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.43140000000000001</v>
+      </c>
+      <c r="D47">
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0.42526666666666668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>900</v>
+      </c>
+      <c r="B48">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D48">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>0.5407333333333334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1000</v>
+      </c>
+      <c r="B49">
+        <v>0.6573</v>
+      </c>
+      <c r="C49">
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="D49">
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2000</v>
+      </c>
+      <c r="B50">
+        <v>2.6884999999999999</v>
+      </c>
+      <c r="C50">
+        <v>2.6747000000000001</v>
+      </c>
+      <c r="D50">
+        <v>2.7919</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>2.7183666666666668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4000</v>
+      </c>
+      <c r="B51">
+        <v>10.672000000000001</v>
+      </c>
+      <c r="C51">
+        <v>10.7319</v>
+      </c>
+      <c r="D51">
+        <v>10.6624</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>10.688766666666666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8000</v>
+      </c>
+      <c r="B52">
+        <v>45.679299999999998</v>
+      </c>
+      <c r="C52">
+        <v>43.053199999999997</v>
+      </c>
+      <c r="D52">
+        <v>43.162300000000002</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>43.964933333333327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16000</v>
+      </c>
+      <c r="B53">
+        <v>101.24930000000001</v>
+      </c>
+      <c r="C53">
+        <v>102.3986</v>
+      </c>
+      <c r="D53">
+        <v>101.47799999999999</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>101.70863333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>20000</v>
+      </c>
+      <c r="B54">
+        <v>163.12309999999999</v>
+      </c>
+      <c r="C54">
+        <v>158.49459999999999</v>
+      </c>
+      <c r="D54">
+        <v>167.43860000000001</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>163.01876666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
